--- a/BalanceSheet/NUAN_bal.xlsx
+++ b/BalanceSheet/NUAN_bal.xlsx
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>11636000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>7695000.0</v>
+        <v>75000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-9649000.0</v>
+        <v>66000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-4873000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1346000.0</v>
+        <v>86000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>90826000.0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-5435000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>15689000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-16371000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1033000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-40288000.0</v>
+        <v>63000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>54216000.0</v>
